--- a/data/提交表格数据/TJ5/午塘头隧道整体模型/午塘头隧道整体模型模型映射表.xlsx
+++ b/data/提交表格数据/TJ5/午塘头隧道整体模型/午塘头隧道整体模型模型映射表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\C#lianxi\JJBG\excelFile\TJ5\午塘头隧道\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\excel2db\data\提交表格数据\TJ5\午塘头隧道整体模型\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF7EE7A-EFFE-494D-9091-1911EF38D08E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="14856"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -553,24 +554,23 @@
   </si>
   <si>
     <t>分项工程编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -879,21 +879,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -904,7 +904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>715463</v>
       </c>
@@ -915,7 +915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>715464</v>
       </c>
@@ -926,7 +926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>715465</v>
       </c>
@@ -937,7 +937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>715467</v>
       </c>
@@ -948,7 +948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>715468</v>
       </c>
@@ -959,7 +959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>715469</v>
       </c>
@@ -970,7 +970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>753782</v>
       </c>
@@ -981,7 +981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>753783</v>
       </c>
@@ -992,7 +992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>765495</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>765496</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>765498</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>765499</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>858770</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>858771</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>858773</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>858774</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>872097</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>872098</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>872100</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>872101</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>1041295</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>1041296</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>1041297</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>1041299</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>1041300</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>1041301</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>1041388</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>1041389</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>1041409</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>1041410</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>1041412</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>1041413</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>1041578</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>1041579</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>1041581</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>1041582</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>1041612</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>1041613</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>1041615</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>1041616</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>1050062</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>1050065</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>1050068</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>1050071</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>1053755</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>1053756</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>1053758</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>1053759</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>1053999</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>1054000</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>1054001</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>1054002</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="1">
         <v>1054003</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>1054004</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="1">
         <v>1054005</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="1">
         <v>1054006</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="1">
         <v>1054007</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>1054008</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="1">
         <v>1054009</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" s="1">
         <v>1054010</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" s="1">
         <v>1054011</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" s="1">
         <v>1054012</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" s="1">
         <v>1054013</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" s="1">
         <v>1054014</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" s="1">
         <v>1054015</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="1">
         <v>1054016</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" s="1">
         <v>1054017</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" s="1">
         <v>1054018</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" s="1">
         <v>1054412</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" s="1">
         <v>1054413</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" s="1">
         <v>1054414</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" s="1">
         <v>1054415</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" s="1">
         <v>1054416</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" s="1">
         <v>1054417</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" s="1">
         <v>1054418</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" s="1">
         <v>1054419</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" s="1">
         <v>1054420</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" s="1">
         <v>1054421</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" s="1">
         <v>1054422</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" s="1">
         <v>1054423</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" s="1">
         <v>1054424</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" s="1">
         <v>1054425</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" s="1">
         <v>1054426</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" s="1">
         <v>1054427</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" s="1">
         <v>1054428</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" s="1">
         <v>1054429</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" s="1">
         <v>1054430</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" s="1">
         <v>1054431</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" s="1">
         <v>1054610</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" s="1">
         <v>1054611</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" s="1">
         <v>1054612</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" s="1">
         <v>1054613</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" s="1">
         <v>1054614</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" s="1">
         <v>1054615</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" s="1">
         <v>1054616</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" s="1">
         <v>1054617</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" s="1">
         <v>1054618</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" s="1">
         <v>1054619</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" s="1">
         <v>1054620</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" s="1">
         <v>1054621</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102" s="1">
         <v>1054622</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" s="1">
         <v>1054623</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" s="1">
         <v>1054624</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" s="1">
         <v>1054625</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106" s="1">
         <v>1054626</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" s="1">
         <v>1054627</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" s="1">
         <v>1054628</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" s="1">
         <v>1054629</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" s="1">
         <v>1054806</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" s="1">
         <v>1054807</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112" s="1">
         <v>1054808</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" s="1">
         <v>1054809</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" s="1">
         <v>1054810</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3">
       <c r="A115" s="1">
         <v>1054811</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116" s="1">
         <v>1054812</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117" s="1">
         <v>1054813</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3">
       <c r="A118" s="1">
         <v>1054814</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="A119" s="1">
         <v>1054815</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120" s="1">
         <v>1054816</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121" s="1">
         <v>1054817</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122" s="1">
         <v>1054818</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" s="1">
         <v>1054819</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3">
       <c r="A124" s="1">
         <v>1054820</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="A125" s="1">
         <v>1054821</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3">
       <c r="A126" s="1">
         <v>1054822</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3">
       <c r="A127" s="1">
         <v>1054823</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3">
       <c r="A128" s="1">
         <v>1054824</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3">
       <c r="A129" s="1">
         <v>1054825</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130" s="1">
         <v>1055002</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" s="1">
         <v>1055003</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3">
       <c r="A132" s="1">
         <v>1055004</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3">
       <c r="A133" s="1">
         <v>1055005</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3">
       <c r="A134" s="1">
         <v>1055006</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3">
       <c r="A135" s="1">
         <v>1055007</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3">
       <c r="A136" s="1">
         <v>1055008</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3">
       <c r="A137" s="1">
         <v>1055009</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3">
       <c r="A138" s="1">
         <v>1055010</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3">
       <c r="A139" s="1">
         <v>1055011</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3">
       <c r="A140" s="1">
         <v>1055012</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3">
       <c r="A141" s="1">
         <v>1055013</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3">
       <c r="A142" s="1">
         <v>1055014</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3">
       <c r="A143" s="1">
         <v>1055015</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3">
       <c r="A144" s="1">
         <v>1055016</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3">
       <c r="A145" s="1">
         <v>1055017</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3">
       <c r="A146" s="1">
         <v>1055018</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3">
       <c r="A147" s="1">
         <v>1055019</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3">
       <c r="A148" s="1">
         <v>1055020</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3">
       <c r="A149" s="1">
         <v>1055021</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3">
       <c r="A150" s="1">
         <v>1055199</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3">
       <c r="A151" s="1">
         <v>1055200</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3">
       <c r="A152" s="1">
         <v>1055201</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3">
       <c r="A153" s="1">
         <v>1055202</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3">
       <c r="A154" s="1">
         <v>1055203</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3">
       <c r="A155" s="1">
         <v>1055204</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3">
       <c r="A156" s="1">
         <v>1055205</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3">
       <c r="A157" s="1">
         <v>1055206</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3">
       <c r="A158" s="1">
         <v>1055207</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3">
       <c r="A159" s="1">
         <v>1055208</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3">
       <c r="A160" s="1">
         <v>1055209</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3">
       <c r="A161" s="1">
         <v>1055210</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3">
       <c r="A162" s="1">
         <v>1055211</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3">
       <c r="A163" s="1">
         <v>1055212</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3">
       <c r="A164" s="1">
         <v>1055213</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3">
       <c r="A165" s="1">
         <v>1055214</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3">
       <c r="A166" s="1">
         <v>1055215</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3">
       <c r="A167" s="1">
         <v>1055216</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3">
       <c r="A168" s="1">
         <v>1055217</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3">
       <c r="A169" s="1">
         <v>1055218</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3">
       <c r="A170" s="1">
         <v>1055396</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3">
       <c r="A171" s="1">
         <v>1055397</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3">
       <c r="A172" s="1">
         <v>1055398</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3">
       <c r="A173" s="1">
         <v>1055399</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3">
       <c r="A174" s="1">
         <v>1055400</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3">
       <c r="A175" s="1">
         <v>1055401</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3">
       <c r="A176" s="1">
         <v>1055402</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3">
       <c r="A177" s="1">
         <v>1055403</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3">
       <c r="A178" s="1">
         <v>1055404</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3">
       <c r="A179" s="1">
         <v>1055405</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3">
       <c r="A180" s="1">
         <v>1055406</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3">
       <c r="A181" s="1">
         <v>1055407</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3">
       <c r="A182" s="1">
         <v>1055408</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3">
       <c r="A183" s="1">
         <v>1055409</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3">
       <c r="A184" s="1">
         <v>1055410</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3">
       <c r="A185" s="1">
         <v>1055411</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3">
       <c r="A186" s="1">
         <v>1055412</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3">
       <c r="A187" s="1">
         <v>1055413</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3">
       <c r="A188" s="1">
         <v>1055414</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3">
       <c r="A189" s="1">
         <v>1055415</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3">
       <c r="A190" s="1">
         <v>1055595</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3">
       <c r="A191" s="1">
         <v>1055596</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3">
       <c r="A192" s="1">
         <v>1055597</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3">
       <c r="A193" s="1">
         <v>1055598</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3">
       <c r="A194" s="1">
         <v>1055599</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3">
       <c r="A195" s="1">
         <v>1055600</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3">
       <c r="A196" s="1">
         <v>1055601</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3">
       <c r="A197" s="1">
         <v>1055602</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3">
       <c r="A198" s="1">
         <v>1055603</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3">
       <c r="A199" s="1">
         <v>1055604</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3">
       <c r="A200" s="1">
         <v>1055605</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3">
       <c r="A201" s="1">
         <v>1055606</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3">
       <c r="A202" s="1">
         <v>1055607</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3">
       <c r="A203" s="1">
         <v>1055608</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3">
       <c r="A204" s="1">
         <v>1055609</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3">
       <c r="A205" s="1">
         <v>1055610</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3">
       <c r="A206" s="1">
         <v>1055611</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3">
       <c r="A207" s="1">
         <v>1055612</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3">
       <c r="A208" s="1">
         <v>1055613</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3">
       <c r="A209" s="1">
         <v>1055614</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3">
       <c r="A210" s="1">
         <v>1055791</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3">
       <c r="A211" s="1">
         <v>1055792</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3">
       <c r="A212" s="1">
         <v>1055793</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3">
       <c r="A213" s="1">
         <v>1055794</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3">
       <c r="A214" s="1">
         <v>1055795</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3">
       <c r="A215" s="1">
         <v>1055796</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3">
       <c r="A216" s="1">
         <v>1055797</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3">
       <c r="A217" s="1">
         <v>1055798</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3">
       <c r="A218" s="1">
         <v>1055799</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3">
       <c r="A219" s="1">
         <v>1055800</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3">
       <c r="A220" s="1">
         <v>1055801</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3">
       <c r="A221" s="1">
         <v>1055802</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3">
       <c r="A222" s="1">
         <v>1055803</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3">
       <c r="A223" s="1">
         <v>1055804</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3">
       <c r="A224" s="1">
         <v>1055805</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3">
       <c r="A225" s="1">
         <v>1055806</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3">
       <c r="A226" s="1">
         <v>1055807</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3">
       <c r="A227" s="1">
         <v>1055808</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3">
       <c r="A228" s="1">
         <v>1055809</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3">
       <c r="A229" s="1">
         <v>1055810</v>
       </c>
